--- a/AttendanceApp/Ejemplo/strg/9° A.xlsx
+++ b/AttendanceApp/Ejemplo/strg/9° A.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Salida" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Salida1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Hoja1'!$1:$9,'Hoja1'!$B:$L</definedName>
@@ -609,7 +610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="B2:AV78"/>
+  <dimension ref="A1:AV78"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
@@ -666,7 +667,13 @@
     <col width="3.72" customWidth="1" style="30" min="48" max="48"/>
   </cols>
   <sheetData>
-    <row r="1" ht="11.25" customHeight="1" s="31"/>
+    <row r="1" ht="11.25" customHeight="1" s="31">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>H4K0 PROOF ;)</t>
+        </is>
+      </c>
+    </row>
     <row r="2" ht="18.75" customHeight="1" s="31">
       <c r="B2" s="32" t="inlineStr">
         <is>
@@ -15426,4 +15433,22 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>